--- a/documents/项目计划/项目研发计划.xlsx
+++ b/documents/项目计划/项目研发计划.xlsx
@@ -253,7 +253,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>手机游戏Demo版本可以用的美术素材资源</t>
+    <t>收集游戏Demo版本可以用的美术素材资源</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -717,7 +717,7 @@
   <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
